--- a/biology/Botanique/Parc_national_Biloozerskyï/Parc_national_Biloozerskyï.xlsx
+++ b/biology/Botanique/Parc_national_Biloozerskyï/Parc_national_Biloozerskyï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_national_Biloozersky%C3%AF</t>
+          <t>Parc_national_Biloozerskyï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de Biloozerskyï (en ukrainien : Білоозерський національний природний парк) est un parc national situé dans les oblasts de Kiev et de Tcherkassy en Ukraine.
 D'une taille de 148 360 hectares, il se situe au sud de Pereiaslav en rive gauche du réservoir de Kaniv sur le Dniepr.
